--- a/Preparing and Modelling Data/customer-rewards.xlsx
+++ b/Preparing and Modelling Data/customer-rewards.xlsx
@@ -1,33 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4507"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/30f52d897f52d61c/Desktop/Udacity/Preparing and Modeling Data/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="11_946C2C74F690161C51E0B977DA42A86260EA2192" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{88FD6A57-C091-4C5C-B475-186F84D2F478}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="11040"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="98">
   <si>
     <t>Customer Rewards Members</t>
   </si>
   <si>
-    <t>C00001</t>
-  </si>
-  <si>
     <t>Josephine Welch</t>
   </si>
   <si>
@@ -37,261 +28,174 @@
     <t>555-867-5309</t>
   </si>
   <si>
-    <t>C00002</t>
-  </si>
-  <si>
     <t>Christina Brady</t>
   </si>
   <si>
     <t>dieman@gmail.com</t>
   </si>
   <si>
-    <t>C00003</t>
-  </si>
-  <si>
     <t>Lynn Hicks</t>
   </si>
   <si>
     <t>sekiya@aol.com</t>
   </si>
   <si>
-    <t>C00004</t>
-  </si>
-  <si>
     <t>Alonzo Parks</t>
   </si>
   <si>
     <t>hampton@aol.com</t>
   </si>
   <si>
-    <t>C00005</t>
-  </si>
-  <si>
     <t>Nick Sherman</t>
   </si>
   <si>
     <t>starstuff@yahoo.com</t>
   </si>
   <si>
-    <t>C00006</t>
-  </si>
-  <si>
     <t>Patty Alvarez</t>
   </si>
   <si>
     <t>stinson@verizon.net</t>
   </si>
   <si>
-    <t>C00007</t>
-  </si>
-  <si>
     <t>Ruben Stevens</t>
   </si>
   <si>
     <t>makarow@yahoo.com</t>
   </si>
   <si>
-    <t>C00008</t>
-  </si>
-  <si>
     <t>Mathew Hunt</t>
   </si>
   <si>
     <t>sacraver@yahoo.ca</t>
   </si>
   <si>
-    <t>C00009</t>
-  </si>
-  <si>
     <t>Kristen Ryan</t>
   </si>
   <si>
     <t>rsteiner@hotmail.com</t>
   </si>
   <si>
-    <t>C00010</t>
-  </si>
-  <si>
     <t>Casey Mccarthy</t>
   </si>
   <si>
     <t>aschmitz@yahoo.com</t>
   </si>
   <si>
-    <t>C00011</t>
-  </si>
-  <si>
     <t>Alex Burgess</t>
   </si>
   <si>
     <t>sburke@att.net</t>
   </si>
   <si>
-    <t>C00012</t>
-  </si>
-  <si>
     <t>Pearl Gray</t>
   </si>
   <si>
     <t>helger@yahoo.com</t>
   </si>
   <si>
-    <t>C00013</t>
-  </si>
-  <si>
     <t>Elaine Martinez</t>
   </si>
   <si>
     <t>monopole@msn.com</t>
   </si>
   <si>
-    <t>C00014</t>
-  </si>
-  <si>
     <t>Meredith Mendoza</t>
   </si>
   <si>
     <t>jfreedma@live.com</t>
   </si>
   <si>
-    <t>C00015</t>
-  </si>
-  <si>
     <t>Leslie Anderson</t>
   </si>
   <si>
     <t>akoblin@optonline.net</t>
   </si>
   <si>
-    <t>C00016</t>
-  </si>
-  <si>
     <t>Earnest Bishop</t>
   </si>
   <si>
     <t>niknejad@att.net</t>
   </si>
   <si>
-    <t>C00017</t>
-  </si>
-  <si>
     <t>Lynn Ellis</t>
   </si>
   <si>
     <t>kannan@msn.com</t>
   </si>
   <si>
-    <t>C00018</t>
-  </si>
-  <si>
     <t>Mitchell Holmes</t>
   </si>
   <si>
     <t>miltchev@verizon.net</t>
   </si>
   <si>
-    <t>C00019</t>
-  </si>
-  <si>
     <t>Monique Frazier</t>
   </si>
   <si>
     <t>shang@verizon.net</t>
   </si>
   <si>
-    <t>C00020</t>
-  </si>
-  <si>
     <t>Cornelius Burke</t>
   </si>
   <si>
     <t>granboul@att.net</t>
   </si>
   <si>
-    <t>C00021</t>
-  </si>
-  <si>
     <t>Beth Bryant</t>
   </si>
   <si>
     <t>mstrout@comcast.net</t>
   </si>
   <si>
-    <t>C00022</t>
-  </si>
-  <si>
     <t>Laverne Holt</t>
   </si>
   <si>
     <t>jmmuller@yahoo.com</t>
   </si>
   <si>
-    <t>C00023</t>
-  </si>
-  <si>
     <t>Rebecca Reeves</t>
   </si>
   <si>
     <t>carreras@verizon.net</t>
   </si>
   <si>
-    <t>C00024</t>
-  </si>
-  <si>
     <t>Gerard Bennett</t>
   </si>
   <si>
     <t>weazelman@att.net</t>
   </si>
   <si>
-    <t>C00025</t>
-  </si>
-  <si>
     <t>Vera Hubbard</t>
   </si>
   <si>
     <t>larry@att.net</t>
   </si>
   <si>
-    <t>C00026</t>
-  </si>
-  <si>
     <t>Jean Cross</t>
   </si>
   <si>
     <t>flavell@comcast.net</t>
   </si>
   <si>
-    <t>C00027</t>
-  </si>
-  <si>
     <t>Eloise Spencer</t>
   </si>
   <si>
     <t>tellis@gmail.com</t>
   </si>
   <si>
-    <t>C00028</t>
-  </si>
-  <si>
     <t>Lana Mclaughlin</t>
   </si>
   <si>
     <t>cantu@yahoo.ca</t>
   </si>
   <si>
-    <t>C00029</t>
-  </si>
-  <si>
     <t>Stacy Santiago</t>
   </si>
   <si>
     <t>cgcra@hotmail.com</t>
   </si>
   <si>
-    <t>C00030</t>
-  </si>
-  <si>
     <t>Winifred Crawford</t>
   </si>
   <si>
@@ -311,12 +215,105 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Column5</t>
+  </si>
+  <si>
+    <t>01</t>
+  </si>
+  <si>
+    <t>02</t>
+  </si>
+  <si>
+    <t>03</t>
+  </si>
+  <si>
+    <t>04</t>
+  </si>
+  <si>
+    <t>05</t>
+  </si>
+  <si>
+    <t>06</t>
+  </si>
+  <si>
+    <t>07</t>
+  </si>
+  <si>
+    <t>08</t>
+  </si>
+  <si>
+    <t>09</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>30</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <fonts count="4">
     <font>
       <sz val="10"/>
@@ -365,7 +362,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
@@ -373,11 +370,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="2">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -394,7 +395,7 @@
         <name val="Arial"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -410,13 +411,18 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D2E20047-FD1F-4CC9-9E1B-F112776F5376}" name="Table1" displayName="Table1" ref="A1:D58" totalsRowShown="0" headerRowDxfId="0">
-  <autoFilter ref="A1:D58" xr:uid="{ABB12A26-878A-418E-AD47-762FF2707561}"/>
-  <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{18C1BB06-640F-478D-90FD-BE2F93B3539B}" name="Column1"/>
-    <tableColumn id="2" xr3:uid="{0D9980ED-87FC-4E01-9E45-EFC7EE86BDF3}" name="Column2"/>
-    <tableColumn id="3" xr3:uid="{F204BF14-5923-4123-A27E-B28FC6137269}" name="Column3"/>
-    <tableColumn id="4" xr3:uid="{3DD6B678-05D2-4F3D-A669-299C79EAF27E}" name="Column4"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E58" totalsRowShown="0" headerRowDxfId="1">
+  <autoFilter ref="A1:E58">
+    <filterColumn colId="4"/>
+  </autoFilter>
+  <tableColumns count="5">
+    <tableColumn id="1" name="Column1"/>
+    <tableColumn id="2" name="Column2"/>
+    <tableColumn id="3" name="Column3"/>
+    <tableColumn id="4" name="Column4"/>
+    <tableColumn id="5" name="Column5" dataDxfId="0">
+      <calculatedColumnFormula>RIGHT(Table1[[#This Row],[Column1]],2)</calculatedColumnFormula>
+    </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -619,14 +625,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:D58"/>
+  <dimension ref="A1:E58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
-      <selection activeCell="D56" sqref="D56"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -635,576 +641,804 @@
     <col min="3" max="3" width="20.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75" customHeight="1">
+    <row r="1" spans="1:5" ht="15.75" customHeight="1">
       <c r="A1" s="4" t="s">
-        <v>92</v>
+        <v>62</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>93</v>
+        <v>63</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>94</v>
+        <v>64</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="15.75" customHeight="1">
+        <v>65</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="15.75" customHeight="1">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
-    </row>
-    <row r="3" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A3" t="s">
+      <c r="E2" s="5"/>
+    </row>
+    <row r="3" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A3" t="str">
+        <f>Table1[[#This Row],[Column5]]</f>
+        <v>01</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="C3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="D3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A4" t="str">
+        <f>Table1[[#This Row],[Column5]]</f>
+        <v>02</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A4" t="s">
+      <c r="C4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="D4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A5" t="str">
+        <f>Table1[[#This Row],[Column5]]</f>
+        <v>03</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A5" t="s">
+      <c r="D5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A6" t="str">
+        <f>Table1[[#This Row],[Column5]]</f>
+        <v>04</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="C6" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="D6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A7" t="str">
+        <f>Table1[[#This Row],[Column5]]</f>
+        <v>05</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A6" t="s">
+      <c r="C7" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="D7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A8" t="str">
+        <f>Table1[[#This Row],[Column5]]</f>
+        <v>06</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C8" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A7" t="s">
+      <c r="D8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A9" t="str">
+        <f>Table1[[#This Row],[Column5]]</f>
+        <v>07</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="C9" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="D9" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A10" t="str">
+        <f>Table1[[#This Row],[Column5]]</f>
+        <v>08</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A8" t="s">
+      <c r="C10" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="D10" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A11" t="str">
+        <f>Table1[[#This Row],[Column5]]</f>
+        <v>09</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C11" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A9" t="s">
+      <c r="D11" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A12" t="str">
+        <f>Table1[[#This Row],[Column5]]</f>
+        <v>10</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="C12" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="D12" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A13" t="str">
+        <f>Table1[[#This Row],[Column5]]</f>
+        <v>11</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A10" t="s">
+      <c r="C13" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="D13" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A14" t="str">
+        <f>Table1[[#This Row],[Column5]]</f>
+        <v>12</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C14" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D10" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A11" t="s">
+      <c r="D14" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A15" t="str">
+        <f>Table1[[#This Row],[Column5]]</f>
+        <v>13</v>
+      </c>
+      <c r="B15" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="C15" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="D15" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A16" t="str">
+        <f>Table1[[#This Row],[Column5]]</f>
+        <v>14</v>
+      </c>
+      <c r="B16" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D11" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A12" t="s">
+      <c r="C16" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="D16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A17" t="str">
+        <f>Table1[[#This Row],[Column5]]</f>
+        <v>15</v>
+      </c>
+      <c r="B17" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C17" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D12" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A13" t="s">
+      <c r="D17" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A18" t="str">
+        <f>Table1[[#This Row],[Column5]]</f>
+        <v>16</v>
+      </c>
+      <c r="B18" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="C18" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="D18" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A19" t="str">
+        <f>Table1[[#This Row],[Column5]]</f>
+        <v>17</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D13" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A14" t="s">
+      <c r="C19" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="D19" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A20" t="str">
+        <f>Table1[[#This Row],[Column5]]</f>
+        <v>18</v>
+      </c>
+      <c r="B20" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C20" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="D14" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A15" t="s">
+      <c r="D20" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A21" t="str">
+        <f>Table1[[#This Row],[Column5]]</f>
+        <v>19</v>
+      </c>
+      <c r="B21" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="C21" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="D21" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A22" t="str">
+        <f>Table1[[#This Row],[Column5]]</f>
+        <v>20</v>
+      </c>
+      <c r="B22" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D15" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A16" t="s">
+      <c r="C22" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="D22" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="18">
+      <c r="A23" t="str">
+        <f>Table1[[#This Row],[Column5]]</f>
+        <v>21</v>
+      </c>
+      <c r="B23" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C23" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="D16" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A17" t="s">
+      <c r="D23" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="18">
+      <c r="A24" t="str">
+        <f>Table1[[#This Row],[Column5]]</f>
+        <v>22</v>
+      </c>
+      <c r="B24" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="C24" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="D24" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="18">
+      <c r="A25" t="str">
+        <f>Table1[[#This Row],[Column5]]</f>
+        <v>23</v>
+      </c>
+      <c r="B25" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="D17" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A18" t="s">
+      <c r="C25" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="D25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="18">
+      <c r="A26" t="str">
+        <f>Table1[[#This Row],[Column5]]</f>
+        <v>24</v>
+      </c>
+      <c r="B26" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="C26" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="D18" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A19" t="s">
+      <c r="D26" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="18">
+      <c r="A27" t="str">
+        <f>Table1[[#This Row],[Column5]]</f>
+        <v>25</v>
+      </c>
+      <c r="B27" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="C27" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="D27" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="18">
+      <c r="A28" t="str">
+        <f>Table1[[#This Row],[Column5]]</f>
+        <v>26</v>
+      </c>
+      <c r="B28" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="D19" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A20" t="s">
+      <c r="C28" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="D28" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="18">
+      <c r="A29" t="str">
+        <f>Table1[[#This Row],[Column5]]</f>
+        <v>27</v>
+      </c>
+      <c r="B29" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="C29" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="D20" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A21" t="s">
+      <c r="D29" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="18">
+      <c r="A30" t="str">
+        <f>Table1[[#This Row],[Column5]]</f>
+        <v>28</v>
+      </c>
+      <c r="B30" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="C30" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="D30" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="18">
+      <c r="A31" t="str">
+        <f>Table1[[#This Row],[Column5]]</f>
+        <v>29</v>
+      </c>
+      <c r="B31" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="D21" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A22" t="s">
+      <c r="C31" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="D31" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A32" t="str">
+        <f>Table1[[#This Row],[Column5]]</f>
+        <v>30</v>
+      </c>
+      <c r="B32" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="C32" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="D22" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="18">
-      <c r="A23" t="s">
-        <v>62</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="18">
-      <c r="A24" t="s">
-        <v>65</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="18">
-      <c r="A25" t="s">
-        <v>68</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="18">
-      <c r="A26" t="s">
-        <v>71</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="18">
-      <c r="A27" t="s">
-        <v>74</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="18">
-      <c r="A28" t="s">
-        <v>77</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="18">
-      <c r="A29" t="s">
-        <v>80</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" ht="18">
-      <c r="A30" t="s">
-        <v>83</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ht="18">
-      <c r="A31" t="s">
-        <v>86</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A32" t="s">
-        <v>89</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>91</v>
-      </c>
       <c r="D32" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" ht="15.75" customHeight="1">
+        <v>3</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="15.75" customHeight="1">
       <c r="A33" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" ht="15.75" customHeight="1">
+        <v>66</v>
+      </c>
+      <c r="E33" s="5" t="str">
+        <f>RIGHT(Table1[[#This Row],[Column1]],2)</f>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="15.75" customHeight="1">
       <c r="A34" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" ht="15.75" customHeight="1">
+        <v>66</v>
+      </c>
+      <c r="E34" s="5" t="str">
+        <f>RIGHT(Table1[[#This Row],[Column1]],2)</f>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="15.75" customHeight="1">
       <c r="A35" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" ht="15.75" customHeight="1">
+        <v>66</v>
+      </c>
+      <c r="E35" s="5" t="str">
+        <f>RIGHT(Table1[[#This Row],[Column1]],2)</f>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="15.75" customHeight="1">
       <c r="A36" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" ht="15.75" customHeight="1">
+        <v>66</v>
+      </c>
+      <c r="E36" s="5" t="str">
+        <f>RIGHT(Table1[[#This Row],[Column1]],2)</f>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="15.75" customHeight="1">
       <c r="A37" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" ht="15.75" customHeight="1">
+        <v>66</v>
+      </c>
+      <c r="E37" s="5" t="str">
+        <f>RIGHT(Table1[[#This Row],[Column1]],2)</f>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="15.75" customHeight="1">
       <c r="A38" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1" ht="15.75" customHeight="1">
+        <v>66</v>
+      </c>
+      <c r="E38" s="5" t="str">
+        <f>RIGHT(Table1[[#This Row],[Column1]],2)</f>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="15.75" customHeight="1">
       <c r="A39" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1" ht="15.75" customHeight="1">
+        <v>66</v>
+      </c>
+      <c r="E39" s="5" t="str">
+        <f>RIGHT(Table1[[#This Row],[Column1]],2)</f>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="15.75" customHeight="1">
       <c r="A40" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1" ht="15.75" customHeight="1">
+        <v>66</v>
+      </c>
+      <c r="E40" s="5" t="str">
+        <f>RIGHT(Table1[[#This Row],[Column1]],2)</f>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="15.75" customHeight="1">
       <c r="A41" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1" ht="15.75" customHeight="1">
+        <v>66</v>
+      </c>
+      <c r="E41" s="5" t="str">
+        <f>RIGHT(Table1[[#This Row],[Column1]],2)</f>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="15.75" customHeight="1">
       <c r="A42" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1" ht="15.75" customHeight="1">
+        <v>66</v>
+      </c>
+      <c r="E42" s="5" t="str">
+        <f>RIGHT(Table1[[#This Row],[Column1]],2)</f>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="15.75" customHeight="1">
       <c r="A43" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1" ht="15.75" customHeight="1">
+        <v>66</v>
+      </c>
+      <c r="E43" s="5" t="str">
+        <f>RIGHT(Table1[[#This Row],[Column1]],2)</f>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="15.75" customHeight="1">
       <c r="A44" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1" ht="15.75" customHeight="1">
+        <v>66</v>
+      </c>
+      <c r="E44" s="5" t="str">
+        <f>RIGHT(Table1[[#This Row],[Column1]],2)</f>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="15.75" customHeight="1">
       <c r="A45" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1" ht="15.75" customHeight="1">
+        <v>66</v>
+      </c>
+      <c r="E45" s="5" t="str">
+        <f>RIGHT(Table1[[#This Row],[Column1]],2)</f>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="15.75" customHeight="1">
       <c r="A46" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1" ht="15.75" customHeight="1">
+        <v>66</v>
+      </c>
+      <c r="E46" s="5" t="str">
+        <f>RIGHT(Table1[[#This Row],[Column1]],2)</f>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="15.75" customHeight="1">
       <c r="A47" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="48" spans="1:1" ht="15.75" customHeight="1">
+        <v>66</v>
+      </c>
+      <c r="E47" s="5" t="str">
+        <f>RIGHT(Table1[[#This Row],[Column1]],2)</f>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="15.75" customHeight="1">
       <c r="A48" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1" ht="15.75" customHeight="1">
+        <v>66</v>
+      </c>
+      <c r="E48" s="5" t="str">
+        <f>RIGHT(Table1[[#This Row],[Column1]],2)</f>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" ht="15.75" customHeight="1">
       <c r="A49" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1" ht="15.75" customHeight="1">
+        <v>66</v>
+      </c>
+      <c r="E49" s="5" t="str">
+        <f>RIGHT(Table1[[#This Row],[Column1]],2)</f>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" ht="15.75" customHeight="1">
       <c r="A50" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1" ht="15.75" customHeight="1">
+        <v>66</v>
+      </c>
+      <c r="E50" s="5" t="str">
+        <f>RIGHT(Table1[[#This Row],[Column1]],2)</f>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" ht="15.75" customHeight="1">
       <c r="A51" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1" ht="15.75" customHeight="1">
+        <v>66</v>
+      </c>
+      <c r="E51" s="5" t="str">
+        <f>RIGHT(Table1[[#This Row],[Column1]],2)</f>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" ht="15.75" customHeight="1">
       <c r="A52" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="53" spans="1:1" ht="15.75" customHeight="1">
+        <v>66</v>
+      </c>
+      <c r="E52" s="5" t="str">
+        <f>RIGHT(Table1[[#This Row],[Column1]],2)</f>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" ht="15.75" customHeight="1">
       <c r="A53" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="54" spans="1:1" ht="15.75" customHeight="1">
+        <v>66</v>
+      </c>
+      <c r="E53" s="5" t="str">
+        <f>RIGHT(Table1[[#This Row],[Column1]],2)</f>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" ht="15.75" customHeight="1">
       <c r="A54" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="55" spans="1:1" ht="15.75" customHeight="1">
+        <v>66</v>
+      </c>
+      <c r="E54" s="5" t="str">
+        <f>RIGHT(Table1[[#This Row],[Column1]],2)</f>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" ht="15.75" customHeight="1">
       <c r="A55" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="56" spans="1:1" ht="15.75" customHeight="1">
+        <v>66</v>
+      </c>
+      <c r="E55" s="5" t="str">
+        <f>RIGHT(Table1[[#This Row],[Column1]],2)</f>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" ht="15.75" customHeight="1">
       <c r="A56" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="57" spans="1:1" ht="15.75" customHeight="1">
+        <v>66</v>
+      </c>
+      <c r="E56" s="5" t="str">
+        <f>RIGHT(Table1[[#This Row],[Column1]],2)</f>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" ht="15.75" customHeight="1">
       <c r="A57" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="58" spans="1:1" ht="15.75" customHeight="1">
+        <v>66</v>
+      </c>
+      <c r="E57" s="5" t="str">
+        <f>RIGHT(Table1[[#This Row],[Column1]],2)</f>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" ht="15.75" customHeight="1">
       <c r="A58" t="s">
-        <v>96</v>
+        <v>66</v>
+      </c>
+      <c r="E58" s="5" t="str">
+        <f>RIGHT(Table1[[#This Row],[Column1]],2)</f>
+        <v xml:space="preserve"> </v>
       </c>
     </row>
   </sheetData>
